--- a/techniqo/data_new_ticker/SYNGENE.xlsx
+++ b/techniqo/data_new_ticker/SYNGENE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1260"/>
+  <dimension ref="A1:G1262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44486,6 +44486,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1261" t="n">
+        <v>547</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>594.95</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>526.2</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>561.8</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>5717606</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1262" t="n">
+        <v>567</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>583.55</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>550.1</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>554.85</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>2921395</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/SYNGENE.xlsx
+++ b/techniqo/data_new_ticker/SYNGENE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1262"/>
+  <dimension ref="A1:G1264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44536,6 +44536,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1263" t="n">
+        <v>557</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>564</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>558.55</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>1105850</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1264" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>580</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>567.85</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>1597518</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
